--- a/Lista części.xlsx
+++ b/Lista części.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uczelnia\6 semestr\Interdyscyplinarny projekt zespołowy - projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA65B9F-53F7-4BB4-8976-60266F20A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11D28F-0F82-421B-8D91-536B87789206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,11 +369,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,484 +722,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>5.4</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f>E3*D3</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>7.8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F8" si="0">E4*D4</f>
         <v>15.6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>15.9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>15.9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>35.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>35.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1.4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.95</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2.6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" ref="F9" si="1">E9*D9</f>
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>1.9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" ref="F10" si="2">E10*D10</f>
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>6</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" ref="F11" si="3">E11*D11</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>11.95</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>1</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f>E12*D12</f>
         <v>11.95</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>17.399999999999999</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>1</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" ref="F14:F20" si="4">E14*D14</f>
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>6</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>3.3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="4"/>
         <v>3.3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>3.9</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="4"/>
         <v>7.8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>9.6</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>5.8</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>3.6</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>1.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f>E21*D21</f>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f>E22*D22</f>
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>3.9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f>E23*D23</f>
         <v>7.8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <f>SUM(F3:F23)</f>
         <v>201.30000000000004</v>
       </c>

--- a/Lista części.xlsx
+++ b/Lista części.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uczelnia\6 semestr\Interdyscyplinarny projekt zespołowy - projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11D28F-0F82-421B-8D91-536B87789206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC579E45-C3F0-45AD-842F-48803189321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Lp</t>
   </si>
@@ -183,6 +183,36 @@
   </si>
   <si>
     <t>https://abc-rc.pl/pl/products/gniazdo-kolkowe-2-54mm-1x40-goldpin-zenskie-7538.html</t>
+  </si>
+  <si>
+    <t>Sprężyna naciągowa z uchem 6x4mm - 20szt</t>
+  </si>
+  <si>
+    <t>https://abc-rc.pl/pl/products/sprezyna-naciagowa-z-uchem-6x4mm-20szt-ze-stali-nierdzewnej-15911.html</t>
+  </si>
+  <si>
+    <t>Sprężyna naciskowa 25x3.4mm - 20szt</t>
+  </si>
+  <si>
+    <t>https://abc-rc.pl/pl/products/sprezyna-naciskowa-25x3-4mm-20szt-ze-stali-nierdzewnej-15912.html</t>
+  </si>
+  <si>
+    <t>Pokrętło radełkowane M5x30mm - gałka, śruba z łbem bakelitowym</t>
+  </si>
+  <si>
+    <t>https://abc-rc.pl/pl/products/pokretlo-radelkowane-m5x30mm-galka-sruba-z-lbem-bakelitowym-16655.html</t>
+  </si>
+  <si>
+    <t>Pokrętło radełkowane M5x20mm - gałka, śruba z łbem bakelitowym</t>
+  </si>
+  <si>
+    <t>https://abc-rc.pl/pl/products/pokretlo-radelkowane-m5x20mm-galka-sruba-z-lbem-bakelitowym-16656.html</t>
+  </si>
+  <si>
+    <t>Mufa do drewna dwugwintowa M5x10mm - 10szt</t>
+  </si>
+  <si>
+    <t>https://abc-rc.pl/pl/products/mufa-do-drewna-dwugwintowa-m5x10mm-10szt-wypustka-meblowa-wkret-nakretka-16768.html</t>
   </si>
 </sst>
 </file>
@@ -369,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +467,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
@@ -720,11 +751,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1148,11 +1177,11 @@
         <v>1.5</v>
       </c>
       <c r="E21" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" s="8">
         <f>E21*D21</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1180,30 +1209,135 @@
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>38</v>
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="8">
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="8">
         <f>E23*D23</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8">
+        <f>E24*D24</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8">
+        <f>E25*D25</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <f>E26*D26</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <f>E27*D27</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
+        <f>E28*D28</f>
         <v>7.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="21" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="22">
-        <f>SUM(F3:F23)</f>
-        <v>201.30000000000004</v>
+      <c r="F29" s="22">
+        <f>SUM(F3:F28)</f>
+        <v>224.30000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1346,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{77BB4A9C-ECBE-4CE8-BEAB-63860F71415E}"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{77BB4A9C-ECBE-4CE8-BEAB-63860F71415E}"/>
     <hyperlink ref="C22" r:id="rId2" xr:uid="{97B3275B-EF52-4A46-8826-859F8F3809AC}"/>
     <hyperlink ref="C21" r:id="rId3" xr:uid="{9E2A6CEF-036D-43AA-9E11-B303AC6E2A4F}"/>
     <hyperlink ref="C20" r:id="rId4" xr:uid="{6C3D8633-A11B-4054-BCD0-338074A15B2C}"/>
@@ -1232,7 +1366,13 @@
     <hyperlink ref="C9" r:id="rId18" xr:uid="{F132227C-E066-4BF1-B50E-9DB69ECE0952}"/>
     <hyperlink ref="C10" r:id="rId19" xr:uid="{D5353335-B43B-4961-AF01-EA00AF7346C8}"/>
     <hyperlink ref="C11" r:id="rId20" xr:uid="{9C46F524-1C88-42FB-B079-54BB7E48A029}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{FE3120E3-0D3F-410C-B93A-FBC2AE243359}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{FE651B42-50E1-4BE6-8574-33D4CC2ACD26}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{2D160ADC-B6EB-40DD-B88C-F6879F8BCD8B}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{A040AA07-AE73-4A53-AB81-3C1CFD387CC1}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{9D8E684B-D9A4-48E2-9581-95C6B72CE75C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Lista części.xlsx
+++ b/Lista części.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uczelnia\6 semestr\Interdyscyplinarny projekt zespołowy - projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC579E45-C3F0-45AD-842F-48803189321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E15635-CF27-4839-B3AC-FD94B09AAEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Lp</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>https://abc-rc.pl/pl/products/mufa-do-drewna-dwugwintowa-m5x10mm-10szt-wypustka-meblowa-wkret-nakretka-16768.html</t>
+  </si>
+  <si>
+    <t>Sprzęgło elastyczne</t>
+  </si>
+  <si>
+    <t>Łożysko samonastawne (jedno)</t>
+  </si>
+  <si>
+    <t>Brakuje:</t>
+  </si>
+  <si>
+    <t>Inserty z gwintem M5</t>
+  </si>
+  <si>
+    <t>Śrubki (głównie M4)</t>
   </si>
 </sst>
 </file>
@@ -223,7 +238,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;zł&quot;_ ;_ * \(#,##0.00\)\ &quot;zł&quot;_ ;_ * &quot;-&quot;??_)\ &quot;zł&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +300,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -399,7 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,13 +490,17 @@
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
@@ -751,7 +784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -763,10 +796,12 @@
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -785,18 +820,24 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="I1" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="I2" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -816,8 +857,11 @@
         <f>E3*D3</f>
         <v>5.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="I3" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -837,8 +881,11 @@
         <f t="shared" ref="F4:F8" si="0">E4*D4</f>
         <v>15.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -858,8 +905,11 @@
         <f t="shared" si="0"/>
         <v>15.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -880,7 +930,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -901,7 +951,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -922,7 +972,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -943,7 +993,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -964,7 +1014,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -985,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1006,17 +1056,17 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="19"/>
       <c r="E13" s="15"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1037,7 +1087,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1058,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1180,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="8">
-        <f>E21*D21</f>
+        <f t="shared" ref="F21:F28" si="5">E21*D21</f>
         <v>12</v>
       </c>
     </row>
@@ -1201,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="8">
-        <f>E22*D22</f>
+        <f t="shared" si="5"/>
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -1222,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="8">
-        <f>E23*D23</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1243,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="8">
-        <f>E24*D24</f>
+        <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
     </row>
@@ -1264,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="8">
-        <f>E25*D25</f>
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
     </row>
@@ -1285,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="8">
-        <f>E26*D26</f>
+        <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
     </row>
@@ -1296,7 +1346,7 @@
       <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="8">
@@ -1306,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="8">
-        <f>E27*D27</f>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
     </row>
@@ -1327,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="8">
-        <f>E28*D28</f>
+        <f t="shared" si="5"/>
         <v>7.8</v>
       </c>
     </row>

--- a/Lista części.xlsx
+++ b/Lista części.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uczelnia\6 semestr\Interdyscyplinarny projekt zespołowy - projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E15635-CF27-4839-B3AC-FD94B09AAEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453BA671-2962-49BF-AF81-AF099BD94AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Lp</t>
   </si>
@@ -213,21 +213,6 @@
   </si>
   <si>
     <t>https://abc-rc.pl/pl/products/mufa-do-drewna-dwugwintowa-m5x10mm-10szt-wypustka-meblowa-wkret-nakretka-16768.html</t>
-  </si>
-  <si>
-    <t>Sprzęgło elastyczne</t>
-  </si>
-  <si>
-    <t>Łożysko samonastawne (jedno)</t>
-  </si>
-  <si>
-    <t>Brakuje:</t>
-  </si>
-  <si>
-    <t>Inserty z gwintem M5</t>
-  </si>
-  <si>
-    <t>Śrubki (głównie M4)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +223,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;zł&quot;_ ;_ * \(#,##0.00\)\ &quot;zł&quot;_ ;_ * &quot;-&quot;??_)\ &quot;zł&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,16 +285,8 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +305,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -428,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,10 +462,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,9 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -796,12 +765,10 @@
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -820,24 +787,18 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -857,11 +818,8 @@
         <f>E3*D3</f>
         <v>5.4</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -881,11 +839,8 @@
         <f t="shared" ref="F4:F8" si="0">E4*D4</f>
         <v>15.6</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -905,11 +860,8 @@
         <f t="shared" si="0"/>
         <v>15.9</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -930,7 +882,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -951,7 +903,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -972,7 +924,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -993,7 +945,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1014,7 +966,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1035,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1056,17 +1008,17 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="19"/>
       <c r="E13" s="15"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1087,7 +1039,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1108,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>

--- a/Lista części.xlsx
+++ b/Lista części.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uczelnia\6 semestr\Interdyscyplinarny projekt zespołowy - projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453BA671-2962-49BF-AF81-AF099BD94AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF74B3-254D-4C56-8876-884F9E993130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,9 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
